--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-composition.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T12:54:55+00:00</t>
+    <t>2024-05-27T13:06:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-composition.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T13:06:19+00:00</t>
+    <t>2024-05-27T13:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -618,7 +618,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/at-core-patient)
+    <t xml:space="preserve">Reference(https://fhir.hl7.at/elga-austrianpatientsummary-r4/StructureDefinition/at-ips-patient)
 </t>
   </si>
   <si>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-composition.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T13:23:31+00:00</t>
+    <t>2024-05-27T13:32:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-composition.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T13:32:38+00:00</t>
+    <t>2024-05-28T08:43:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-composition.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T08:43:22+00:00</t>
+    <t>2024-05-28T09:33:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-composition.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10114" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10114" uniqueCount="724">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T09:33:56+00:00</t>
+    <t>2024-05-28T13:59:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1395,6 +1395,10 @@
     <t>Composition.section:sectionMedications.entry</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(MedicationStatement|MedicationRequest|MedicationAdministration|MedicationDispense|DocumentReference)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">profile:resolve()}
 </t>
   </si>
@@ -1472,6 +1476,10 @@
     <t>Composition.section:sectionAllergies.entry</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(AllergyIntolerance|DocumentReference)
+</t>
+  </si>
+  <si>
     <t>Composition.section:sectionAllergies.entry:allergyOrIntolerance</t>
   </si>
   <si>
@@ -1535,6 +1543,10 @@
     <t>Composition.section:sectionProblems.entry</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Condition|DocumentReference)
+</t>
+  </si>
+  <si>
     <t>Composition.section:sectionProblems.entry:problem</t>
   </si>
   <si>
@@ -1598,13 +1610,17 @@
     <t>Composition.section:sectionProceduresHx.entry</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Procedure|DocumentReference)
+</t>
+  </si>
+  <si>
     <t>Composition.section:sectionProceduresHx.entry:procedure</t>
   </si>
   <si>
     <t>procedure</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/ips/StructureDefinition/Procedure-uv-ips)
+    <t xml:space="preserve">Reference(https://fhir.hl7.at/elga-austrianpatientsummary-r4/StructureDefinition/at-ips-Procedure)
 </t>
   </si>
   <si>
@@ -1661,6 +1677,10 @@
     <t>Composition.section:sectionImmunizations.entry</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Immunization|DocumentReference)
+</t>
+  </si>
+  <si>
     <t>Composition.section:sectionImmunizations.entry:immunization</t>
   </si>
   <si>
@@ -1724,13 +1744,17 @@
     <t>Composition.section:sectionMedicalDevices.entry</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(DeviceUseStatement|DocumentReference)
+</t>
+  </si>
+  <si>
     <t>Composition.section:sectionMedicalDevices.entry:deviceStatement</t>
   </si>
   <si>
     <t>deviceStatement</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/ips/StructureDefinition/DeviceUseStatement-uv-ips)
+    <t xml:space="preserve">Reference(https://fhir.hl7.at/elga-austrianpatientsummary-r4/StructureDefinition/at-ips-deviceusestatement)
 </t>
   </si>
   <si>
@@ -1787,6 +1811,10 @@
     <t>Composition.section:sectionResults.entry</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Observation|DiagnosticReport|DocumentReference)
+</t>
+  </si>
+  <si>
     <t>type:resolve()}
 profile:resolve()}</t>
   </si>
@@ -1797,7 +1825,7 @@
     <t>resultsObservation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/ips/StructureDefinition/Observation-results-uv-ips)
+    <t xml:space="preserve">Reference(https://fhir.hl7.at/elga-austrianpatientsummary-r4/StructureDefinition/at-ips-observationresults)
 </t>
   </si>
   <si>
@@ -1807,7 +1835,7 @@
     <t>resultsDiagnosticReport</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/ips/StructureDefinition/DiagnosticReport-uv-ips)
+    <t xml:space="preserve">Reference(https://fhir.hl7.at/elga-austrianpatientsummary-r4/StructureDefinition/at-ips-diagnosticreport)
 </t>
   </si>
   <si>
@@ -1864,13 +1892,17 @@
     <t>Composition.section:sectionVitalSigns.entry</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Observation|DocumentReference)
+</t>
+  </si>
+  <si>
     <t>Composition.section:sectionVitalSigns.entry:vitalSign</t>
   </si>
   <si>
     <t>vitalSign</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(vitalsigns)
+    <t xml:space="preserve">Reference(https://fhir.hl7.at/elga-austrianpatientsummary-r4/StructureDefinition/at-ips-observationvitalsigns)
 </t>
   </si>
   <si>
@@ -1986,6 +2018,10 @@
     <t>Composition.section:sectionFunctionalStatus.entry</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Condition|ClinicalImpression|DocumentReference)
+</t>
+  </si>
+  <si>
     <t>Composition.section:sectionFunctionalStatus.entry:disability</t>
   </si>
   <si>
@@ -2055,6 +2091,10 @@
     <t>Composition.section:sectionPlanOfCare.entry</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(CarePlan|DocumentReference)
+</t>
+  </si>
+  <si>
     <t>Composition.section:sectionPlanOfCare.entry:carePlan</t>
   </si>
   <si>
@@ -2124,7 +2164,7 @@
     <t>smokingTobaccoUse</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/ips/StructureDefinition/Observation-tobaccouse-uv-ips)
+    <t xml:space="preserve">Reference(https://fhir.hl7.at/elga-austrianpatientsummary-r4/StructureDefinition/at-ips-observationtobaccouse)
 </t>
   </si>
   <si>
@@ -2134,7 +2174,7 @@
     <t>alcoholUse</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/ips/StructureDefinition/Observation-alcoholuse-uv-ips)
+    <t xml:space="preserve">Reference(https://fhir.hl7.at/elga-austrianpatientsummary-r4/StructureDefinition/at-ips-observationalcoholuse)
 </t>
   </si>
   <si>
@@ -2197,7 +2237,7 @@
     <t>pregnancyStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/ips/StructureDefinition/Observation-pregnancy-status-uv-ips)
+    <t xml:space="preserve">Reference(https://fhir.hl7.at/elga-austrianpatientsummary-r4/StructureDefinition/at-ips-observationpregnancystatus)
 </t>
   </si>
   <si>
@@ -2207,7 +2247,7 @@
     <t>pregnancyOutcomeSummary</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/ips/StructureDefinition/Observation-pregnancy-outcome-uv-ips)
+    <t xml:space="preserve">Reference(https://fhir.hl7.at/elga-austrianpatientsummary-r4/StructureDefinition/at-ips-observationpregnancyoutcome)
 </t>
   </si>
   <si>
@@ -2262,6 +2302,10 @@
   </si>
   <si>
     <t>Composition.section:sectionAdvanceDirectives.entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Consent|DocumentReference)
+</t>
   </si>
   <si>
     <t>Composition.section:sectionAdvanceDirectives.entry:advanceDirectivesConsent</t>
@@ -2601,7 +2645,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="101.9296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="112.29296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -10415,7 +10459,7 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>353</v>
+        <v>446</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>413</v>
@@ -10462,7 +10506,7 @@
         <v>78</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" t="s" s="2">
@@ -10504,13 +10548,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>412</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>78</v>
@@ -10532,7 +10576,7 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>413</v>
@@ -10623,13 +10667,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>412</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>78</v>
@@ -10651,7 +10695,7 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>413</v>
@@ -10742,7 +10786,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>419</v>
@@ -10861,7 +10905,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>427</v>
@@ -10978,13 +11022,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>357</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>78</v>
@@ -11095,7 +11139,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>366</v>
@@ -11210,7 +11254,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>367</v>
@@ -11327,7 +11371,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>368</v>
@@ -11446,7 +11490,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>369</v>
@@ -11565,7 +11609,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>375</v>
@@ -11613,7 +11657,7 @@
         <v>78</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>78</v>
@@ -11684,7 +11728,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>382</v>
@@ -11801,7 +11845,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>385</v>
@@ -11918,7 +11962,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>390</v>
@@ -12035,7 +12079,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>396</v>
@@ -12154,7 +12198,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>404</v>
@@ -12273,7 +12317,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>412</v>
@@ -12299,7 +12343,7 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>353</v>
+        <v>470</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>413</v>
@@ -12346,7 +12390,7 @@
         <v>78</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AC83" s="2"/>
       <c r="AD83" t="s" s="2">
@@ -12388,13 +12432,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>412</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>78</v>
@@ -12416,7 +12460,7 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>413</v>
@@ -12507,7 +12551,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>419</v>
@@ -12626,7 +12670,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>427</v>
@@ -12743,13 +12787,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>357</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>78</v>
@@ -12860,7 +12904,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>366</v>
@@ -12975,7 +13019,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>367</v>
@@ -13092,7 +13136,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>368</v>
@@ -13211,7 +13255,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>369</v>
@@ -13330,7 +13374,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>375</v>
@@ -13378,7 +13422,7 @@
         <v>78</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>78</v>
@@ -13449,7 +13493,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>382</v>
@@ -13566,7 +13610,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>385</v>
@@ -13683,7 +13727,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>390</v>
@@ -13800,7 +13844,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>396</v>
@@ -13919,7 +13963,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>404</v>
@@ -14038,7 +14082,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>412</v>
@@ -14064,7 +14108,7 @@
         <v>78</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>353</v>
+        <v>490</v>
       </c>
       <c r="L98" t="s" s="2">
         <v>413</v>
@@ -14111,7 +14155,7 @@
         <v>78</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
@@ -14153,13 +14197,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>412</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>78</v>
@@ -14181,7 +14225,7 @@
         <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="L99" t="s" s="2">
         <v>413</v>
@@ -14272,7 +14316,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>419</v>
@@ -14391,7 +14435,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>427</v>
@@ -14508,13 +14552,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>357</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D102" t="s" s="2">
         <v>78</v>
@@ -14625,7 +14669,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>366</v>
@@ -14740,7 +14784,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>367</v>
@@ -14857,7 +14901,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>368</v>
@@ -14976,7 +15020,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>369</v>
@@ -15095,7 +15139,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>375</v>
@@ -15143,7 +15187,7 @@
         <v>78</v>
       </c>
       <c r="S107" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="T107" t="s" s="2">
         <v>78</v>
@@ -15214,7 +15258,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>382</v>
@@ -15331,7 +15375,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>385</v>
@@ -15448,7 +15492,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>390</v>
@@ -15565,7 +15609,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>396</v>
@@ -15684,7 +15728,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>404</v>
@@ -15803,7 +15847,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>412</v>
@@ -15829,7 +15873,7 @@
         <v>78</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>353</v>
+        <v>510</v>
       </c>
       <c r="L113" t="s" s="2">
         <v>413</v>
@@ -15876,7 +15920,7 @@
         <v>78</v>
       </c>
       <c r="AB113" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AC113" s="2"/>
       <c r="AD113" t="s" s="2">
@@ -15918,13 +15962,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>412</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>78</v>
@@ -15946,7 +15990,7 @@
         <v>78</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="L114" t="s" s="2">
         <v>413</v>
@@ -16037,7 +16081,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>419</v>
@@ -16156,7 +16200,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>427</v>
@@ -16273,13 +16317,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>357</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>78</v>
@@ -16390,7 +16434,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>366</v>
@@ -16505,7 +16549,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>367</v>
@@ -16622,7 +16666,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>368</v>
@@ -16741,7 +16785,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>369</v>
@@ -16860,7 +16904,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>375</v>
@@ -16908,7 +16952,7 @@
         <v>78</v>
       </c>
       <c r="S122" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="T122" t="s" s="2">
         <v>78</v>
@@ -16979,7 +17023,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>382</v>
@@ -17096,7 +17140,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>385</v>
@@ -17213,7 +17257,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>390</v>
@@ -17330,7 +17374,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>396</v>
@@ -17449,7 +17493,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>404</v>
@@ -17568,7 +17612,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>412</v>
@@ -17594,7 +17638,7 @@
         <v>78</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>353</v>
+        <v>530</v>
       </c>
       <c r="L128" t="s" s="2">
         <v>413</v>
@@ -17641,7 +17685,7 @@
         <v>78</v>
       </c>
       <c r="AB128" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AC128" s="2"/>
       <c r="AD128" t="s" s="2">
@@ -17683,13 +17727,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>412</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="D129" t="s" s="2">
         <v>78</v>
@@ -17711,7 +17755,7 @@
         <v>78</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="L129" t="s" s="2">
         <v>413</v>
@@ -17802,7 +17846,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>419</v>
@@ -17921,7 +17965,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>427</v>
@@ -18038,13 +18082,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>357</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="D132" t="s" s="2">
         <v>78</v>
@@ -18155,7 +18199,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>366</v>
@@ -18270,7 +18314,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>367</v>
@@ -18387,7 +18431,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>368</v>
@@ -18506,7 +18550,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>369</v>
@@ -18625,7 +18669,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>375</v>
@@ -18673,7 +18717,7 @@
         <v>78</v>
       </c>
       <c r="S137" t="s" s="2">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="T137" t="s" s="2">
         <v>78</v>
@@ -18744,7 +18788,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>382</v>
@@ -18861,7 +18905,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>385</v>
@@ -18978,7 +19022,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>390</v>
@@ -19095,7 +19139,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>396</v>
@@ -19214,7 +19258,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>404</v>
@@ -19333,7 +19377,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>412</v>
@@ -19359,7 +19403,7 @@
         <v>78</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>353</v>
+        <v>550</v>
       </c>
       <c r="L143" t="s" s="2">
         <v>413</v>
@@ -19406,7 +19450,7 @@
         <v>78</v>
       </c>
       <c r="AB143" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AC143" s="2"/>
       <c r="AD143" t="s" s="2">
@@ -19448,13 +19492,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>412</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="D144" t="s" s="2">
         <v>78</v>
@@ -19476,7 +19520,7 @@
         <v>78</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="L144" t="s" s="2">
         <v>413</v>
@@ -19567,7 +19611,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>419</v>
@@ -19686,7 +19730,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>427</v>
@@ -19803,13 +19847,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>357</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="D147" t="s" s="2">
         <v>78</v>
@@ -19920,7 +19964,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>366</v>
@@ -20035,7 +20079,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>367</v>
@@ -20152,7 +20196,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>368</v>
@@ -20271,7 +20315,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>369</v>
@@ -20390,7 +20434,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>375</v>
@@ -20438,7 +20482,7 @@
         <v>78</v>
       </c>
       <c r="S152" t="s" s="2">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="T152" t="s" s="2">
         <v>78</v>
@@ -20509,7 +20553,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>382</v>
@@ -20626,7 +20670,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>385</v>
@@ -20743,7 +20787,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>390</v>
@@ -20860,7 +20904,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>396</v>
@@ -20979,7 +21023,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>404</v>
@@ -21098,7 +21142,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>412</v>
@@ -21124,7 +21168,7 @@
         <v>78</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>353</v>
+        <v>570</v>
       </c>
       <c r="L158" t="s" s="2">
         <v>413</v>
@@ -21171,7 +21215,7 @@
         <v>78</v>
       </c>
       <c r="AB158" t="s" s="2">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="AC158" s="2"/>
       <c r="AD158" t="s" s="2">
@@ -21213,13 +21257,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>412</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="D159" t="s" s="2">
         <v>78</v>
@@ -21241,7 +21285,7 @@
         <v>78</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="L159" t="s" s="2">
         <v>413</v>
@@ -21332,13 +21376,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>412</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="D160" t="s" s="2">
         <v>78</v>
@@ -21360,7 +21404,7 @@
         <v>78</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="L160" t="s" s="2">
         <v>413</v>
@@ -21451,7 +21495,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>419</v>
@@ -21570,7 +21614,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>427</v>
@@ -21687,13 +21731,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>357</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="D163" t="s" s="2">
         <v>78</v>
@@ -21804,7 +21848,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>366</v>
@@ -21919,7 +21963,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>367</v>
@@ -22036,7 +22080,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>368</v>
@@ -22155,7 +22199,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>369</v>
@@ -22274,7 +22318,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>375</v>
@@ -22322,7 +22366,7 @@
         <v>78</v>
       </c>
       <c r="S168" t="s" s="2">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="T168" t="s" s="2">
         <v>78</v>
@@ -22393,7 +22437,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>382</v>
@@ -22510,7 +22554,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>385</v>
@@ -22627,7 +22671,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>390</v>
@@ -22744,7 +22788,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>396</v>
@@ -22863,7 +22907,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>404</v>
@@ -22982,7 +23026,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>412</v>
@@ -23008,7 +23052,7 @@
         <v>78</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>353</v>
+        <v>594</v>
       </c>
       <c r="L174" t="s" s="2">
         <v>413</v>
@@ -23055,7 +23099,7 @@
         <v>78</v>
       </c>
       <c r="AB174" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AC174" s="2"/>
       <c r="AD174" t="s" s="2">
@@ -23097,13 +23141,13 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>412</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="D175" t="s" s="2">
         <v>78</v>
@@ -23125,7 +23169,7 @@
         <v>78</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="L175" t="s" s="2">
         <v>413</v>
@@ -23216,7 +23260,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>419</v>
@@ -23335,7 +23379,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>427</v>
@@ -23452,13 +23496,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>357</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D178" t="s" s="2">
         <v>78</v>
@@ -23569,7 +23613,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>366</v>
@@ -23684,7 +23728,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>367</v>
@@ -23801,7 +23845,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>368</v>
@@ -23920,7 +23964,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>369</v>
@@ -24039,7 +24083,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>375</v>
@@ -24087,7 +24131,7 @@
         <v>78</v>
       </c>
       <c r="S183" t="s" s="2">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="T183" t="s" s="2">
         <v>78</v>
@@ -24158,7 +24202,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>382</v>
@@ -24275,7 +24319,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>385</v>
@@ -24392,7 +24436,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>390</v>
@@ -24509,7 +24553,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>396</v>
@@ -24628,7 +24672,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>404</v>
@@ -24747,7 +24791,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>412</v>
@@ -24758,7 +24802,7 @@
       </c>
       <c r="E189" s="2"/>
       <c r="F189" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G189" t="s" s="2">
         <v>80</v>
@@ -24773,7 +24817,7 @@
         <v>78</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>353</v>
+        <v>490</v>
       </c>
       <c r="L189" t="s" s="2">
         <v>413</v>
@@ -24820,7 +24864,7 @@
         <v>78</v>
       </c>
       <c r="AB189" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AC189" s="2"/>
       <c r="AD189" t="s" s="2">
@@ -24862,20 +24906,20 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>412</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="D190" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G190" t="s" s="2">
         <v>80</v>
@@ -24890,7 +24934,7 @@
         <v>78</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="L190" t="s" s="2">
         <v>413</v>
@@ -24981,7 +25025,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>419</v>
@@ -25100,7 +25144,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>427</v>
@@ -25217,13 +25261,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>357</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>78</v>
@@ -25334,7 +25378,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>366</v>
@@ -25449,7 +25493,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>367</v>
@@ -25566,7 +25610,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>368</v>
@@ -25685,7 +25729,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>369</v>
@@ -25804,7 +25848,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>375</v>
@@ -25852,7 +25896,7 @@
         <v>78</v>
       </c>
       <c r="S198" t="s" s="2">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="T198" t="s" s="2">
         <v>78</v>
@@ -25923,7 +25967,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>382</v>
@@ -26040,7 +26084,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>385</v>
@@ -26157,7 +26201,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>390</v>
@@ -26274,7 +26318,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>396</v>
@@ -26393,7 +26437,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>404</v>
@@ -26512,7 +26556,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>412</v>
@@ -26538,7 +26582,7 @@
         <v>78</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>353</v>
+        <v>632</v>
       </c>
       <c r="L204" t="s" s="2">
         <v>413</v>
@@ -26585,7 +26629,7 @@
         <v>78</v>
       </c>
       <c r="AB204" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AC204" s="2"/>
       <c r="AD204" t="s" s="2">
@@ -26627,13 +26671,13 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>412</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="D205" t="s" s="2">
         <v>78</v>
@@ -26655,7 +26699,7 @@
         <v>78</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="L205" t="s" s="2">
         <v>413</v>
@@ -26746,13 +26790,13 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>412</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="D206" t="s" s="2">
         <v>78</v>
@@ -26774,7 +26818,7 @@
         <v>78</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="L206" t="s" s="2">
         <v>413</v>
@@ -26865,7 +26909,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>419</v>
@@ -26984,7 +27028,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>427</v>
@@ -27101,13 +27145,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>357</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="D209" t="s" s="2">
         <v>78</v>
@@ -27218,7 +27262,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>366</v>
@@ -27333,7 +27377,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>367</v>
@@ -27450,7 +27494,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>368</v>
@@ -27569,7 +27613,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>369</v>
@@ -27688,7 +27732,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>375</v>
@@ -27736,7 +27780,7 @@
         <v>78</v>
       </c>
       <c r="S214" t="s" s="2">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="T214" t="s" s="2">
         <v>78</v>
@@ -27807,7 +27851,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>382</v>
@@ -27924,7 +27968,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>385</v>
@@ -28041,7 +28085,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>390</v>
@@ -28158,7 +28202,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>396</v>
@@ -28277,7 +28321,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>404</v>
@@ -28396,7 +28440,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>412</v>
@@ -28422,7 +28466,7 @@
         <v>78</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>353</v>
+        <v>654</v>
       </c>
       <c r="L220" t="s" s="2">
         <v>413</v>
@@ -28469,7 +28513,7 @@
         <v>78</v>
       </c>
       <c r="AB220" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AC220" s="2"/>
       <c r="AD220" t="s" s="2">
@@ -28511,13 +28555,13 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>412</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="D221" t="s" s="2">
         <v>78</v>
@@ -28539,7 +28583,7 @@
         <v>78</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="L221" t="s" s="2">
         <v>413</v>
@@ -28630,7 +28674,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>419</v>
@@ -28749,7 +28793,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>427</v>
@@ -28866,13 +28910,13 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>357</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="D224" t="s" s="2">
         <v>78</v>
@@ -28983,7 +29027,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>366</v>
@@ -29098,7 +29142,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>367</v>
@@ -29215,7 +29259,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>368</v>
@@ -29334,7 +29378,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>369</v>
@@ -29453,7 +29497,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>375</v>
@@ -29501,7 +29545,7 @@
         <v>78</v>
       </c>
       <c r="S229" t="s" s="2">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="T229" t="s" s="2">
         <v>78</v>
@@ -29572,7 +29616,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>382</v>
@@ -29689,7 +29733,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>385</v>
@@ -29806,7 +29850,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>390</v>
@@ -29923,7 +29967,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>396</v>
@@ -30042,7 +30086,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>404</v>
@@ -30161,7 +30205,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>412</v>
@@ -30187,7 +30231,7 @@
         <v>78</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>353</v>
+        <v>594</v>
       </c>
       <c r="L235" t="s" s="2">
         <v>413</v>
@@ -30234,7 +30278,7 @@
         <v>78</v>
       </c>
       <c r="AB235" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AC235" s="2"/>
       <c r="AD235" t="s" s="2">
@@ -30276,13 +30320,13 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>412</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="D236" t="s" s="2">
         <v>78</v>
@@ -30304,7 +30348,7 @@
         <v>78</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="L236" t="s" s="2">
         <v>413</v>
@@ -30395,13 +30439,13 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>412</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="D237" t="s" s="2">
         <v>78</v>
@@ -30423,7 +30467,7 @@
         <v>78</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="L237" t="s" s="2">
         <v>413</v>
@@ -30514,7 +30558,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>419</v>
@@ -30633,7 +30677,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>427</v>
@@ -30750,13 +30794,13 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>357</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="D240" t="s" s="2">
         <v>78</v>
@@ -30867,7 +30911,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>366</v>
@@ -30982,7 +31026,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>367</v>
@@ -31099,7 +31143,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>368</v>
@@ -31218,7 +31262,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>369</v>
@@ -31337,7 +31381,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>375</v>
@@ -31385,7 +31429,7 @@
         <v>78</v>
       </c>
       <c r="S245" t="s" s="2">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="T245" t="s" s="2">
         <v>78</v>
@@ -31456,7 +31500,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>382</v>
@@ -31573,7 +31617,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>385</v>
@@ -31690,7 +31734,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>390</v>
@@ -31807,7 +31851,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>396</v>
@@ -31926,7 +31970,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>404</v>
@@ -32045,7 +32089,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>412</v>
@@ -32071,7 +32115,7 @@
         <v>78</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>353</v>
+        <v>594</v>
       </c>
       <c r="L251" t="s" s="2">
         <v>413</v>
@@ -32118,7 +32162,7 @@
         <v>78</v>
       </c>
       <c r="AB251" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AC251" s="2"/>
       <c r="AD251" t="s" s="2">
@@ -32160,13 +32204,13 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>412</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="D252" t="s" s="2">
         <v>78</v>
@@ -32188,7 +32232,7 @@
         <v>78</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="L252" t="s" s="2">
         <v>413</v>
@@ -32279,13 +32323,13 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>412</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="D253" t="s" s="2">
         <v>78</v>
@@ -32307,7 +32351,7 @@
         <v>78</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="L253" t="s" s="2">
         <v>413</v>
@@ -32398,7 +32442,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>419</v>
@@ -32517,7 +32561,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>427</v>
@@ -32634,13 +32678,13 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>357</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="D256" t="s" s="2">
         <v>78</v>
@@ -32751,7 +32795,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>366</v>
@@ -32866,7 +32910,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>367</v>
@@ -32983,7 +33027,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>368</v>
@@ -33102,7 +33146,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>369</v>
@@ -33221,7 +33265,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>375</v>
@@ -33269,7 +33313,7 @@
         <v>78</v>
       </c>
       <c r="S261" t="s" s="2">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="T261" t="s" s="2">
         <v>78</v>
@@ -33340,7 +33384,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>382</v>
@@ -33457,7 +33501,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>385</v>
@@ -33574,7 +33618,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>390</v>
@@ -33691,7 +33735,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>396</v>
@@ -33810,7 +33854,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>404</v>
@@ -33929,7 +33973,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>412</v>
@@ -33955,7 +33999,7 @@
         <v>78</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>353</v>
+        <v>718</v>
       </c>
       <c r="L267" t="s" s="2">
         <v>413</v>
@@ -34002,7 +34046,7 @@
         <v>78</v>
       </c>
       <c r="AB267" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AC267" s="2"/>
       <c r="AD267" t="s" s="2">
@@ -34044,13 +34088,13 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>412</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="D268" t="s" s="2">
         <v>78</v>
@@ -34072,7 +34116,7 @@
         <v>78</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="L268" t="s" s="2">
         <v>413</v>
@@ -34163,7 +34207,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>419</v>
@@ -34282,7 +34326,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>427</v>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-composition.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:59:53+00:00</t>
+    <t>2024-05-29T06:58:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This AT IPS profile for the Composition resource is derived from the general Composition resource in absence of a corresponding profile in the HL7® Austria FHIR® Core Implementation Guide and also ensures IPS conformity via the IPS profile referenced by the so-called imposeProfile extension.</t>
+    <t>This AT IPS profile for the Composition resource is derived from the general Composition resource in absence of a corresponding profile in the HL7® Austria FHIR® Core implementation guide and also ensures IPS conformity via the IPS profile referenced by the so-called [`imposeProfile`](http://hl7.org/fhir/StructureDefinition/structuredefinition-imposeProfile) extension.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1013,7 +1013,7 @@
   </si>
   <si>
     <t>Identifier
-Reference(https://fhir.hl7.at/elga-austrianpatientsummary-r4/StructureDefinition/at-ips-composition)</t>
+Reference(Composition|https://fhir.hl7.at/elga-austrianpatientsummary-r4/StructureDefinition/at-ips-composition)</t>
   </si>
   <si>
     <t>Target of the relationship</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-composition.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T06:58:17+00:00</t>
+    <t>2024-05-29T12:02:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-composition.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T12:02:27+00:00</t>
+    <t>2024-06-19T12:04:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-composition.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T12:04:55+00:00</t>
+    <t>2024-10-16T10:23:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -693,7 +693,7 @@
     <t>The Last Modified Date on the composition may be after the date of the document was attested without being changed.</t>
   </si>
   <si>
-    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
+    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](http://hl7.org/fhir/R4/bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
